--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value484.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value484.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9947178772321139</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>1.764112127719594</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.152204572102767</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.46260934601019</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.035677993445919</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
